--- a/BackTest/2020-01-25 BackTest ETH.xlsx
+++ b/BackTest/2020-01-25 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>74.76901005291003</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>78.14881005291002</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>85.85951005291003</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>87.19581005291002</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>87.19581005291002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>86.19628674782527</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>81.42888674782527</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>82.08478674782528</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>87.65117657833375</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>89.52527657833375</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>88.23637657833375</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>88.23637657833375</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>64.53617657833375</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>64.53617657833375</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>15.52937657833375</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>12.36367657833375</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>15.73777657833375</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>13.31027657833375</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>94.31337657833375</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>137.1551833228903</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>137.1551833228903</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>137.1551833228903</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>144.1288833228903</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>187.1950833228903</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>180.1122833228903</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>180.11758522967</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>179.18908522967</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>168.73298522967</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>169.29208522967</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>169.29208522967</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>169.38658522967</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>175.92148522967</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>175.82888522967</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>175.82888522967</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>155.80098522967</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-573.4322080717654</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-573.2034080717655</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-572.9829080717655</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-549.3331080717654</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-547.6552080717654</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-542.0605080717654</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-542.0605080717654</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-499.5833080717654</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-494.5833080717654</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-494.5833080717654</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-472.0658080717654</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-533.7353080717654</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-518.3628080717655</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1039.361849336503</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1042.511849336503</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-999.8977493365035</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1004.592749336504</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-1004.592749336504</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-1004.597549336504</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-1004.597549336504</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-819.8290493365035</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-693.3400493365035</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-693.3400493365035</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-693.3400493365035</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-601.7183493365036</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-601.7183493365036</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-610.9323493365035</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-610.2469493365036</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-609.9899493365036</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-597.8649493365036</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-619.0456493365036</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-670.3187493365036</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-459.6292493365036</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-444.7400493365036</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-441.7911493365036</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-354.7887493365036</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-344.1514493365036</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-332.1821493365036</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-326.3044493365036</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-322.0099493365036</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-333.8446493365036</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-333.6464493365036</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-336.9474493365036</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-274.7402493365036</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-276.9571493365036</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-278.1871493365036</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-449.9079493365036</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-472.4710493365037</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-532.9596857578906</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-528.0738857578906</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-783.7830857578906</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-783.2423857578906</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-801.1947857578906</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-798.1962530625158</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-798.1962530625158</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-776.9396609754207</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-778.9396609754207</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-781.5296609754207</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-777.2395609754207</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-777.7531609754207</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-773.7531609754207</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-775.8319609754207</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-775.8319609754207</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-790.5341609754206</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-773.3808609754205</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-773.3808609754205</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-769.3115609754205</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-769.3115609754205</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-775.3877609754205</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-775.3877609754205</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-775.3877609754205</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-771.1877609754205</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-771.1973609754205</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-761.1973609754205</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-766.2491609754204</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-751.8032121729965</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-751.8032121729965</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-762.9166482472671</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-736.027348247267</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-696.689948247267</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-603.8122741885702</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-595.8122741885702</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-589.4122741885702</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-588.8268741885702</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-677.1483741885701</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-677.4683741885701</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-670.6981741885701</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-677.7281741885701</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-746.60467418857</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-748.69067418857</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-748.69067418857</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-747.27317418857</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-747.27317418857</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-703.10987418857</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-687.27317418857</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-684.69027418857</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-685.78547418857</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-661.9725345161191</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-639.3193345161192</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-597.3141345161191</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-615.4589345161191</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-620.4302345161192</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-630.0720345161192</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-618.4410842515689</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-618.1964842515689</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-610.1651842515689</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-610.1683842515689</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-592.8799842515689</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-597.7304842515689</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-679.792284251569</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-724.1899842515689</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-724.1899842515689</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-724.1899842515689</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-708.930884251569</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-694.682684251569</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-725.615484251569</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-782.841384251569</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-817.891384251569</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-890.601384251569</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-890.601384251569</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-888.070784251569</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-899.0699842515689</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-899.0699842515689</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-899.0699842515689</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-788.0699842515689</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-810.5066842515689</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-801.3623856338124</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-806.3623856338124</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-806.3623856338124</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-805.1084856338124</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-805.1084856338124</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-810.1542856338124</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-871.8124856338123</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-868.3417856338124</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-869.1157856338124</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-862.2942856338124</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-912.0537856338124</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-887.7214856338123</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-915.2013856338124</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-915.2013856338124</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-866.2013856338124</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-846.2013856338124</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-841.2013856338124</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-842.4013856338124</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-842.4013856338124</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-842.4013856338124</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-859.0187832858935</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-859.0187832858935</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-867.5126832858936</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-812.0482832858936</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-812.0482832858936</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-812.0482832858936</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -27874,11 +27874,17 @@
         <v>-3267.820510191362</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>182800</v>
+      </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +27913,17 @@
         <v>-3155.728710191362</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>182800</v>
+      </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +27952,17 @@
         <v>-3165.043410191362</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>182900</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27973,11 +27991,17 @@
         <v>-3130.003010191362</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>182500</v>
+      </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28034,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28067,17 @@
         <v>-3160.660710191362</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>182400</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28106,17 @@
         <v>-3159.751110191362</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>182300</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28145,17 @@
         <v>-3159.751110191362</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>182500</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28184,17 @@
         <v>-3078.275310191362</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>182500</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28223,17 @@
         <v>-3078.275310191362</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>182900</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28262,17 @@
         <v>-3093.096810191362</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>182900</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28305,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28342,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28379,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28412,17 @@
         <v>-3040.781812381942</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>182500</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28455,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28492,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28529,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28566,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28603,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28640,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28677,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28714,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28751,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28788,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28825,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28862,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28899,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28936,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +28973,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +29010,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +29047,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29084,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29121,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29158,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29195,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +29232,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29269,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29306,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29343,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29380,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29417,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +29454,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +29491,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29528,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +29565,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +29602,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29425,11 +29635,17 @@
         <v>-3308.394954044835</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>182100</v>
+      </c>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29458,11 +29674,17 @@
         <v>-3316.902154044835</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>182400</v>
+      </c>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29491,11 +29713,17 @@
         <v>-3315.155454044835</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>182300</v>
+      </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +29752,17 @@
         <v>-3323.888354044835</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>182400</v>
+      </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +29791,17 @@
         <v>-3323.662654044835</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>182300</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +29830,17 @@
         <v>-3303.506854044835</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>182600</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +29869,17 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>182700</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +29908,17 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>182800</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +29947,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>182800</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +29986,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>182900</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +30025,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>182900</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +30064,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>182900</v>
+      </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +30103,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>182900</v>
+      </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +30142,17 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>182900</v>
+      </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29887,7 +30181,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>182600</v>
@@ -29895,7 +30189,7 @@
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L894" t="n">
@@ -29926,7 +30220,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>182600</v>
@@ -29965,7 +30259,7 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>182600</v>
@@ -30004,7 +30298,7 @@
         <v>-3259.714354044835</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>182600</v>
@@ -30043,7 +30337,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>182500</v>
@@ -30082,7 +30376,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>182600</v>
@@ -30121,7 +30415,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>182600</v>
@@ -30160,7 +30454,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>182600</v>
@@ -30199,7 +30493,7 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>182600</v>
@@ -30238,7 +30532,7 @@
         <v>-3208.397654044835</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>182600</v>
@@ -30277,7 +30571,7 @@
         <v>-3277.116754044835</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>182700</v>
@@ -30316,7 +30610,7 @@
         <v>-3277.116754044835</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>182600</v>
@@ -30355,9 +30649,11 @@
         <v>-3277.116754044835</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>182600</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -30392,7 +30688,7 @@
         <v>-3311.003054044835</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>182600</v>
@@ -30431,7 +30727,7 @@
         <v>-3549.015154044835</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>182400</v>
@@ -30470,7 +30766,7 @@
         <v>-3549.015154044835</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I909" t="n">
         <v>182000</v>
@@ -30509,7 +30805,7 @@
         <v>-3536.876454044835</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I910" t="n">
         <v>182000</v>
@@ -30548,7 +30844,7 @@
         <v>-3536.876454044835</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>182200</v>
@@ -30587,7 +30883,7 @@
         <v>-3536.876454044835</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912" t="n">
         <v>182200</v>
@@ -30626,7 +30922,7 @@
         <v>-3519.681454044835</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>182200</v>
@@ -30665,7 +30961,7 @@
         <v>-3519.681454044835</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>182500</v>
@@ -30704,7 +31000,7 @@
         <v>-3519.681454044835</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>182500</v>
@@ -30743,7 +31039,7 @@
         <v>-3519.910354044835</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>182500</v>
@@ -30782,7 +31078,7 @@
         <v>-3519.910354044835</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>182400</v>
@@ -30821,7 +31117,7 @@
         <v>-3498.382578088551</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>182400</v>
@@ -30860,7 +31156,7 @@
         <v>-3460.677878088551</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>182600</v>
@@ -30899,7 +31195,7 @@
         <v>-3454.047078088551</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>182800</v>
@@ -30938,7 +31234,7 @@
         <v>-3445.073178088551</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>182900</v>
@@ -30977,9 +31273,11 @@
         <v>-3359.027178088551</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>183000</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31014,9 +31312,11 @@
         <v>-3343.350078088551</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>183300</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31051,9 +31351,11 @@
         <v>-3225.762278088551</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>183700</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -32346,7 +32648,7 @@
         <v>-2573.910431397298</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32383,7 +32685,7 @@
         <v>-2553.244963275957</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32420,7 +32722,7 @@
         <v>-2650.713663914935</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32568,9 +32870,11 @@
         <v>-2776.88389977406</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>186900</v>
+      </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -32642,9 +32946,11 @@
         <v>-2707.49119977406</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>186600</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -32679,7 +32985,7 @@
         <v>-2707.49119977406</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32716,7 +33022,7 @@
         <v>-2748.46379977406</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32864,7 +33170,7 @@
         <v>-2245.03989977406</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -37319,6 +37625,6 @@
       <c r="M1093" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ETH.xlsx
+++ b/BackTest/2020-01-25 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>89.52527657833375</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>88.23637657833375</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>88.23637657833375</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>64.53617657833375</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>64.53617657833375</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>15.52937657833375</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>12.36367657833375</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>15.73777657833375</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>11.86717657833375</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>13.31027657833375</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>9.542976578333752</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>94.31337657833375</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>187.1950833228903</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>180.1122833228903</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>180.11758522967</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>179.18908522967</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>168.73298522967</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>169.29208522967</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>169.29208522967</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>169.38658522967</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>167.98458522967</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>175.92148522967</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>175.82888522967</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>175.82888522967</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-573.4322080717654</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-573.2034080717655</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-572.9829080717655</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-549.3331080717654</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-547.6552080717654</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-542.0605080717654</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-542.0605080717654</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-499.5833080717654</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-494.5833080717654</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-494.5833080717654</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-472.0658080717654</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-533.7353080717654</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-518.3628080717655</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-610.2469493365036</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-609.9899493365036</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-597.8649493365036</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-619.0456493365036</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-670.3187493365036</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-459.6292493365036</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-444.7400493365036</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-441.7911493365036</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-354.7887493365036</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-344.1514493365036</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-332.1821493365036</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-449.9079493365036</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-472.4710493365037</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-532.9596857578906</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-528.0738857578906</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-783.7830857578906</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-783.2423857578906</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-801.1947857578906</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-798.1962530625158</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-798.1962530625158</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-776.9396609754207</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-778.9396609754207</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-781.5296609754207</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-777.2395609754207</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-777.7531609754207</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-773.7531609754207</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-775.8319609754207</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-775.8319609754207</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-790.5341609754206</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-773.3808609754205</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-773.3808609754205</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-769.3115609754205</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-769.3115609754205</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-775.3877609754205</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-775.3877609754205</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-775.3877609754205</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-771.1877609754205</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-771.1973609754205</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-761.1973609754205</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-766.2491609754204</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-751.8032121729965</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-751.8032121729965</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-762.9166482472671</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-736.027348247267</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-696.689948247267</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-603.8122741885702</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-595.8122741885702</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-589.4122741885702</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-588.8268741885702</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-677.1483741885701</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-677.4683741885701</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-670.6981741885701</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-677.7281741885701</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-746.60467418857</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-748.69067418857</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-748.69067418857</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-747.27317418857</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-747.27317418857</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-703.10987418857</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-687.27317418857</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-684.69027418857</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-685.78547418857</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-661.9725345161191</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-639.3193345161192</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-597.3141345161191</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-615.4589345161191</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-620.4302345161192</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-630.0720345161192</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-618.4410842515689</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-618.1964842515689</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-610.1651842515689</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-610.1683842515689</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-592.8799842515689</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-597.7304842515689</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-679.792284251569</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-724.1899842515689</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-724.1899842515689</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-724.1899842515689</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-708.930884251569</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-694.682684251569</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-725.615484251569</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-782.841384251569</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-817.891384251569</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-890.601384251569</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-890.601384251569</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-888.070784251569</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-899.0699842515689</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-899.0699842515689</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-899.0699842515689</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-788.0699842515689</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-810.5066842515689</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-801.3623856338124</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-806.3623856338124</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-806.3623856338124</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-805.1084856338124</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-805.1084856338124</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-810.1542856338124</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-871.8124856338123</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-868.3417856338124</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-869.1157856338124</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-862.2942856338124</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-912.0537856338124</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-887.7214856338123</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-915.2013856338124</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-915.2013856338124</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-866.2013856338124</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-846.2013856338124</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-841.2013856338124</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-842.4013856338124</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-842.4013856338124</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-842.4013856338124</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-859.0187832858935</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-859.0187832858935</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-867.5126832858936</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-812.0482832858936</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-812.0482832858936</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-812.0482832858936</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -27874,2597 +27874,2275 @@
         <v>-3267.820510191362</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C834" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D834" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E834" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F834" t="n">
+        <v>112.0918</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-3155.728710191362</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C835" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D835" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E835" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F835" t="n">
+        <v>9.3147</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-3165.043410191362</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C836" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D836" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E836" t="n">
+        <v>182400</v>
+      </c>
+      <c r="F836" t="n">
+        <v>35.0404</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-3130.003010191362</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>182300</v>
+      </c>
+      <c r="C837" t="n">
+        <v>182400</v>
+      </c>
+      <c r="D837" t="n">
+        <v>182400</v>
+      </c>
+      <c r="E837" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F837" t="n">
+        <v>6.4257</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-3136.428710191362</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>182300</v>
+      </c>
+      <c r="C838" t="n">
+        <v>182300</v>
+      </c>
+      <c r="D838" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E838" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F838" t="n">
+        <v>24.232</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-3160.660710191362</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C839" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D839" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E839" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.9096</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-3159.751110191362</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C840" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D840" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E840" t="n">
+        <v>182400</v>
+      </c>
+      <c r="F840" t="n">
+        <v>86.01860000000001</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-3159.751110191362</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C841" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D841" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E841" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F841" t="n">
+        <v>81.47580000000001</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-3078.275310191362</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>183000</v>
+      </c>
+      <c r="C842" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D842" t="n">
+        <v>183100</v>
+      </c>
+      <c r="E842" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F842" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-3078.275310191362</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>182700</v>
+      </c>
+      <c r="C843" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D843" t="n">
+        <v>182700</v>
+      </c>
+      <c r="E843" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F843" t="n">
+        <v>14.8215</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-3093.096810191362</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C844" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D844" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E844" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-3093.740810191362</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>182700</v>
+      </c>
+      <c r="C845" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D845" t="n">
+        <v>182700</v>
+      </c>
+      <c r="E845" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F845" t="n">
+        <v>21.126</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-3093.740810191362</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>182300</v>
+      </c>
+      <c r="C846" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D846" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E846" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F846" t="n">
+        <v>48.5863</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-3093.740810191362</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C847" t="n">
         <v>182800</v>
       </c>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
+      <c r="D847" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E847" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F847" t="n">
+        <v>52.95899780941949</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-3040.781812381942</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>182800</v>
+      </c>
+      <c r="C848" t="n">
+        <v>183000</v>
+      </c>
+      <c r="D848" t="n">
+        <v>183300</v>
+      </c>
+      <c r="E848" t="n">
+        <v>182800</v>
+      </c>
+      <c r="F848" t="n">
+        <v>45.37500229382851</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-2995.406810088114</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>183500</v>
+      </c>
+      <c r="C849" t="n">
+        <v>183700</v>
+      </c>
+      <c r="D849" t="n">
+        <v>183800</v>
+      </c>
+      <c r="E849" t="n">
+        <v>183500</v>
+      </c>
+      <c r="F849" t="n">
+        <v>15.2378</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-2980.169010088114</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>183700</v>
+      </c>
+      <c r="C850" t="n">
+        <v>183400</v>
+      </c>
+      <c r="D850" t="n">
+        <v>183700</v>
+      </c>
+      <c r="E850" t="n">
+        <v>183400</v>
+      </c>
+      <c r="F850" t="n">
+        <v>51.7477</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-3031.916710088114</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>183400</v>
+      </c>
+      <c r="C851" t="n">
+        <v>183400</v>
+      </c>
+      <c r="D851" t="n">
+        <v>183400</v>
+      </c>
+      <c r="E851" t="n">
+        <v>183400</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-3031.916710088114</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>183300</v>
+      </c>
+      <c r="C852" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D852" t="n">
+        <v>183300</v>
+      </c>
+      <c r="E852" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F852" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-3034.716710088114</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>183300</v>
+      </c>
+      <c r="C853" t="n">
+        <v>183200</v>
+      </c>
+      <c r="D853" t="n">
+        <v>183300</v>
+      </c>
+      <c r="E853" t="n">
+        <v>183200</v>
+      </c>
+      <c r="F853" t="n">
+        <v>2.1065</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-3036.823210088114</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>183300</v>
+      </c>
+      <c r="C854" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D854" t="n">
+        <v>183300</v>
+      </c>
+      <c r="E854" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-3036.781110088114</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>183300</v>
+      </c>
+      <c r="C855" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D855" t="n">
+        <v>183300</v>
+      </c>
+      <c r="E855" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-3036.781110088114</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>183300</v>
+      </c>
+      <c r="C856" t="n">
+        <v>183500</v>
+      </c>
+      <c r="D856" t="n">
+        <v>183500</v>
+      </c>
+      <c r="E856" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0.5365</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-3036.244610088113</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="n">
+        <v>1</v>
+      </c>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
+        <v>183500</v>
+      </c>
+      <c r="C857" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D857" t="n">
+        <v>183700</v>
+      </c>
+      <c r="E857" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F857" t="n">
+        <v>1.4521</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-3037.696710088113</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="n">
+        <v>1</v>
+      </c>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>183600</v>
+      </c>
+      <c r="C858" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D858" t="n">
+        <v>183600</v>
+      </c>
+      <c r="E858" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F858" t="n">
+        <v>6.4226</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-3037.696710088113</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="n">
+        <v>1</v>
+      </c>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>183600</v>
+      </c>
+      <c r="C859" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D859" t="n">
+        <v>183600</v>
+      </c>
+      <c r="E859" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F859" t="n">
+        <v>2.5433</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-3037.696710088113</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="n">
+        <v>1</v>
+      </c>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>183700</v>
+      </c>
+      <c r="C860" t="n">
+        <v>183400</v>
+      </c>
+      <c r="D860" t="n">
+        <v>183700</v>
+      </c>
+      <c r="E860" t="n">
+        <v>183400</v>
+      </c>
+      <c r="F860" t="n">
+        <v>1.411143168209037</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-3036.285566919904</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>183600</v>
+      </c>
+      <c r="C861" t="n">
+        <v>183600</v>
+      </c>
+      <c r="D861" t="n">
+        <v>183600</v>
+      </c>
+      <c r="E861" t="n">
+        <v>183600</v>
+      </c>
+      <c r="F861" t="n">
+        <v>7.508</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-3028.777566919905</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="n">
+        <v>1</v>
+      </c>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>183400</v>
+      </c>
+      <c r="C862" t="n">
+        <v>183100</v>
+      </c>
+      <c r="D862" t="n">
+        <v>183400</v>
+      </c>
+      <c r="E862" t="n">
+        <v>183100</v>
+      </c>
+      <c r="F862" t="n">
+        <v>41.47</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-3070.247566919904</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="n">
+        <v>1</v>
+      </c>
+      <c r="M862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="n">
+        <v>183100</v>
+      </c>
+      <c r="C863" t="n">
+        <v>183100</v>
+      </c>
+      <c r="D863" t="n">
+        <v>183100</v>
+      </c>
+      <c r="E863" t="n">
+        <v>183100</v>
+      </c>
+      <c r="F863" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G863" t="n">
+        <v>-3070.247566919904</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="n">
+        <v>1</v>
+      </c>
+      <c r="M863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="n">
+        <v>183300</v>
+      </c>
+      <c r="C864" t="n">
+        <v>183300</v>
+      </c>
+      <c r="D864" t="n">
+        <v>183300</v>
+      </c>
+      <c r="E864" t="n">
+        <v>183300</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.08291287506819421</v>
+      </c>
+      <c r="G864" t="n">
+        <v>-3070.164654044836</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="n">
+        <v>1</v>
+      </c>
+      <c r="M864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="n">
+        <v>183100</v>
+      </c>
+      <c r="C865" t="n">
+        <v>183100</v>
+      </c>
+      <c r="D865" t="n">
+        <v>183100</v>
+      </c>
+      <c r="E865" t="n">
+        <v>183100</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G865" t="n">
+        <v>-3070.864654044836</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="n">
+        <v>1</v>
+      </c>
+      <c r="M865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="n">
+        <v>183100</v>
+      </c>
+      <c r="C866" t="n">
+        <v>183100</v>
+      </c>
+      <c r="D866" t="n">
+        <v>183100</v>
+      </c>
+      <c r="E866" t="n">
+        <v>183100</v>
+      </c>
+      <c r="F866" t="n">
+        <v>1.0624</v>
+      </c>
+      <c r="G866" t="n">
+        <v>-3070.864654044836</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="n">
+        <v>1</v>
+      </c>
+      <c r="M866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="n">
+        <v>183200</v>
+      </c>
+      <c r="C867" t="n">
+        <v>183200</v>
+      </c>
+      <c r="D867" t="n">
+        <v>183200</v>
+      </c>
+      <c r="E867" t="n">
+        <v>183200</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G867" t="n">
+        <v>-3070.364654044836</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="n">
+        <v>1</v>
+      </c>
+      <c r="M867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="n">
+        <v>183400</v>
+      </c>
+      <c r="C868" t="n">
+        <v>183400</v>
+      </c>
+      <c r="D868" t="n">
+        <v>183400</v>
+      </c>
+      <c r="E868" t="n">
+        <v>183400</v>
+      </c>
+      <c r="F868" t="n">
+        <v>1.6341</v>
+      </c>
+      <c r="G868" t="n">
+        <v>-3068.730554044836</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="n">
+        <v>1</v>
+      </c>
+      <c r="M868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="n">
+        <v>183200</v>
+      </c>
+      <c r="C869" t="n">
+        <v>183400</v>
+      </c>
+      <c r="D869" t="n">
+        <v>183400</v>
+      </c>
+      <c r="E869" t="n">
+        <v>183100</v>
+      </c>
+      <c r="F869" t="n">
+        <v>22.9201</v>
+      </c>
+      <c r="G869" t="n">
+        <v>-3068.730554044836</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="n">
+        <v>1</v>
+      </c>
+      <c r="M869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="n">
+        <v>183400</v>
+      </c>
+      <c r="C870" t="n">
+        <v>183400</v>
+      </c>
+      <c r="D870" t="n">
+        <v>183400</v>
+      </c>
+      <c r="E870" t="n">
+        <v>183200</v>
+      </c>
+      <c r="F870" t="n">
+        <v>1.5556</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-3068.730554044836</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="n">
+        <v>1</v>
+      </c>
+      <c r="M870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="n">
+        <v>183200</v>
+      </c>
+      <c r="C871" t="n">
+        <v>183200</v>
+      </c>
+      <c r="D871" t="n">
+        <v>183200</v>
+      </c>
+      <c r="E871" t="n">
+        <v>183200</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="G871" t="n">
+        <v>-3068.742254044836</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="n">
+        <v>1</v>
+      </c>
+      <c r="M871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>183400</v>
+      </c>
+      <c r="C872" t="n">
+        <v>183100</v>
+      </c>
+      <c r="D872" t="n">
+        <v>183400</v>
+      </c>
+      <c r="E872" t="n">
+        <v>183100</v>
+      </c>
+      <c r="F872" t="n">
+        <v>32.3785</v>
+      </c>
+      <c r="G872" t="n">
+        <v>-3101.120754044835</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="n">
+        <v>1</v>
+      </c>
+      <c r="M872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="n">
+        <v>183100</v>
+      </c>
+      <c r="C873" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D873" t="n">
+        <v>183100</v>
+      </c>
+      <c r="E873" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F873" t="n">
+        <v>52.1461</v>
+      </c>
+      <c r="G873" t="n">
+        <v>-3153.266854044835</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="n">
+        <v>1</v>
+      </c>
+      <c r="M873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="n">
+        <v>183000</v>
+      </c>
+      <c r="C874" t="n">
+        <v>183000</v>
+      </c>
+      <c r="D874" t="n">
+        <v>183000</v>
+      </c>
+      <c r="E874" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F874" t="n">
+        <v>4.1554</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-3149.111454044835</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="n">
+        <v>1</v>
+      </c>
+      <c r="M874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="n">
+        <v>182900</v>
+      </c>
+      <c r="C875" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D875" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E875" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F875" t="n">
+        <v>7.8141</v>
+      </c>
+      <c r="G875" t="n">
+        <v>-3156.925554044835</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="n">
+        <v>1</v>
+      </c>
+      <c r="M875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="n">
+        <v>183000</v>
+      </c>
+      <c r="C876" t="n">
+        <v>182800</v>
+      </c>
+      <c r="D876" t="n">
+        <v>183000</v>
+      </c>
+      <c r="E876" t="n">
+        <v>182800</v>
+      </c>
+      <c r="F876" t="n">
+        <v>47.4564</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-3204.381954044835</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="n">
+        <v>1</v>
+      </c>
+      <c r="M876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>182800</v>
+      </c>
+      <c r="C877" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D877" t="n">
+        <v>182800</v>
+      </c>
+      <c r="E877" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F877" t="n">
+        <v>65.51300000000001</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-3269.894954044835</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="n">
+        <v>1</v>
+      </c>
+      <c r="M877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C878" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D878" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E878" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F878" t="n">
+        <v>4</v>
+      </c>
+      <c r="G878" t="n">
+        <v>-3269.894954044835</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="n">
+        <v>1</v>
+      </c>
+      <c r="M878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>182300</v>
+      </c>
+      <c r="C879" t="n">
+        <v>182100</v>
+      </c>
+      <c r="D879" t="n">
+        <v>182300</v>
+      </c>
+      <c r="E879" t="n">
+        <v>182100</v>
+      </c>
+      <c r="F879" t="n">
+        <v>50</v>
+      </c>
+      <c r="G879" t="n">
+        <v>-3319.894954044835</v>
+      </c>
+      <c r="H879" t="n">
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="n">
+        <v>1</v>
+      </c>
+      <c r="M879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="n">
+        <v>182100</v>
+      </c>
+      <c r="C880" t="n">
+        <v>182400</v>
+      </c>
+      <c r="D880" t="n">
+        <v>182400</v>
+      </c>
+      <c r="E880" t="n">
+        <v>182100</v>
+      </c>
+      <c r="F880" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G880" t="n">
+        <v>-3308.394954044835</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="n">
+        <v>1</v>
+      </c>
+      <c r="M880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="n">
+        <v>182300</v>
+      </c>
+      <c r="C881" t="n">
+        <v>182300</v>
+      </c>
+      <c r="D881" t="n">
+        <v>182300</v>
+      </c>
+      <c r="E881" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F881" t="n">
+        <v>8.507199999999999</v>
+      </c>
+      <c r="G881" t="n">
+        <v>-3316.902154044835</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="n">
+        <v>1</v>
+      </c>
+      <c r="M881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>182300</v>
+      </c>
+      <c r="C882" t="n">
+        <v>182400</v>
+      </c>
+      <c r="D882" t="n">
+        <v>182400</v>
+      </c>
+      <c r="E882" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F882" t="n">
+        <v>1.7467</v>
+      </c>
+      <c r="G882" t="n">
+        <v>-3315.155454044835</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="n">
+        <v>1</v>
+      </c>
+      <c r="M882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C883" t="n">
+        <v>182300</v>
+      </c>
+      <c r="D883" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E883" t="n">
+        <v>182300</v>
+      </c>
+      <c r="F883" t="n">
+        <v>8.732900000000001</v>
+      </c>
+      <c r="G883" t="n">
+        <v>-3323.888354044835</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="n">
+        <v>1</v>
+      </c>
+      <c r="M883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C884" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D884" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E884" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.2257</v>
+      </c>
+      <c r="G884" t="n">
+        <v>-3323.662654044835</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="n">
+        <v>1</v>
+      </c>
+      <c r="M884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C885" t="n">
+        <v>182700</v>
+      </c>
+      <c r="D885" t="n">
+        <v>182700</v>
+      </c>
+      <c r="E885" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F885" t="n">
+        <v>20.1558</v>
+      </c>
+      <c r="G885" t="n">
+        <v>-3303.506854044835</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="n">
+        <v>1</v>
+      </c>
+      <c r="M885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C886" t="n">
+        <v>182800</v>
+      </c>
+      <c r="D886" t="n">
+        <v>182800</v>
+      </c>
+      <c r="E886" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F886" t="n">
+        <v>80.0395</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-3223.467354044835</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="n">
+        <v>1</v>
+      </c>
+      <c r="M886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>182800</v>
+      </c>
+      <c r="C887" t="n">
+        <v>182800</v>
+      </c>
+      <c r="D887" t="n">
+        <v>182800</v>
+      </c>
+      <c r="E887" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F887" t="n">
+        <v>83.2632</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-3223.467354044835</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="n">
+        <v>1</v>
+      </c>
+      <c r="M887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>182800</v>
+      </c>
+      <c r="C888" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D888" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E888" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F888" t="n">
+        <v>5.6024</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-3217.864954044835</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="n">
+        <v>1</v>
+      </c>
+      <c r="M888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>182900</v>
+      </c>
+      <c r="C889" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D889" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E889" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F889" t="n">
+        <v>5.5021</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-3217.864954044835</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="n">
+        <v>1</v>
+      </c>
+      <c r="M889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>182900</v>
+      </c>
+      <c r="C890" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D890" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E890" t="n">
+        <v>182800</v>
+      </c>
+      <c r="F890" t="n">
+        <v>4.9709</v>
+      </c>
+      <c r="G890" t="n">
+        <v>-3217.864954044835</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="n">
+        <v>1</v>
+      </c>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>182900</v>
+      </c>
+      <c r="C891" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D891" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E891" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1.2893</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-3217.864954044835</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="n">
+        <v>1</v>
+      </c>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>182900</v>
+      </c>
+      <c r="C892" t="n">
+        <v>182900</v>
+      </c>
+      <c r="D892" t="n">
+        <v>182900</v>
+      </c>
+      <c r="E892" t="n">
+        <v>182900</v>
+      </c>
+      <c r="F892" t="n">
+        <v>2.6314</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-3217.864954044835</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="n">
+        <v>1</v>
+      </c>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>182700</v>
+      </c>
+      <c r="C893" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D893" t="n">
+        <v>182700</v>
+      </c>
+      <c r="E893" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F893" t="n">
+        <v>10.0823</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-3227.947254044835</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C894" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D894" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E894" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F894" t="n">
+        <v>1.4464</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-3227.947254044835</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C895" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D895" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E895" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F895" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-3227.947254044835</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C896" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D896" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E896" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0.1095290251916758</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-3227.947254044835</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C897" t="n">
+        <v>182500</v>
+      </c>
+      <c r="D897" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E897" t="n">
+        <v>182500</v>
+      </c>
+      <c r="F897" t="n">
+        <v>31.7671</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-3259.714354044835</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C898" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D898" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E898" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F898" t="n">
+        <v>4</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-3255.714354044835</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C899" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D899" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E899" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F899" t="n">
+        <v>18.9937</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-3255.714354044835</v>
+      </c>
+      <c r="H899" t="n">
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>182600</v>
+      </c>
+      <c r="J899" t="n">
+        <v>182600</v>
+      </c>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C900" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D900" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E900" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F900" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-3255.714354044835</v>
+      </c>
+      <c r="H900" t="n">
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>182600</v>
+      </c>
+      <c r="J900" t="n">
+        <v>182600</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C901" t="n">
+        <v>182600</v>
+      </c>
+      <c r="D901" t="n">
+        <v>182800</v>
+      </c>
+      <c r="E901" t="n">
+        <v>182600</v>
+      </c>
+      <c r="F901" t="n">
+        <v>17.81488118161926</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-3255.714354044835</v>
+      </c>
+      <c r="H901" t="n">
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>182600</v>
+      </c>
+      <c r="J901" t="n">
+        <v>182600</v>
+      </c>
+      <c r="K901" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C834" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D834" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E834" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F834" t="n">
-        <v>112.0918</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-3155.728710191362</v>
-      </c>
-      <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>182800</v>
-      </c>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C835" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D835" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E835" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F835" t="n">
-        <v>9.3147</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-3165.043410191362</v>
-      </c>
-      <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C836" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D836" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E836" t="n">
-        <v>182400</v>
-      </c>
-      <c r="F836" t="n">
-        <v>35.0404</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-3130.003010191362</v>
-      </c>
-      <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>182500</v>
-      </c>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>182300</v>
-      </c>
-      <c r="C837" t="n">
-        <v>182400</v>
-      </c>
-      <c r="D837" t="n">
-        <v>182400</v>
-      </c>
-      <c r="E837" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F837" t="n">
-        <v>6.4257</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-3136.428710191362</v>
-      </c>
-      <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>182300</v>
-      </c>
-      <c r="C838" t="n">
-        <v>182300</v>
-      </c>
-      <c r="D838" t="n">
-        <v>182500</v>
-      </c>
-      <c r="E838" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F838" t="n">
-        <v>24.232</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-3160.660710191362</v>
-      </c>
-      <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>182400</v>
-      </c>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C839" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D839" t="n">
-        <v>182500</v>
-      </c>
-      <c r="E839" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F839" t="n">
-        <v>0.9096</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-3159.751110191362</v>
-      </c>
-      <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>182300</v>
-      </c>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C840" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D840" t="n">
-        <v>182500</v>
-      </c>
-      <c r="E840" t="n">
-        <v>182400</v>
-      </c>
-      <c r="F840" t="n">
-        <v>86.01860000000001</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-3159.751110191362</v>
-      </c>
-      <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>182500</v>
-      </c>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C841" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D841" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E841" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F841" t="n">
-        <v>81.47580000000001</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-3078.275310191362</v>
-      </c>
-      <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>182500</v>
-      </c>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>183000</v>
-      </c>
-      <c r="C842" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D842" t="n">
-        <v>183100</v>
-      </c>
-      <c r="E842" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F842" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-3078.275310191362</v>
-      </c>
-      <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>182700</v>
-      </c>
-      <c r="C843" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D843" t="n">
-        <v>182700</v>
-      </c>
-      <c r="E843" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F843" t="n">
-        <v>14.8215</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-3093.096810191362</v>
-      </c>
-      <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C844" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D844" t="n">
-        <v>182500</v>
-      </c>
-      <c r="E844" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F844" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-3093.740810191362</v>
-      </c>
-      <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>182700</v>
-      </c>
-      <c r="C845" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D845" t="n">
-        <v>182700</v>
-      </c>
-      <c r="E845" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F845" t="n">
-        <v>21.126</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-3093.740810191362</v>
-      </c>
-      <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>182300</v>
-      </c>
-      <c r="C846" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D846" t="n">
-        <v>182500</v>
-      </c>
-      <c r="E846" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F846" t="n">
-        <v>48.5863</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-3093.740810191362</v>
-      </c>
-      <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C847" t="n">
-        <v>182800</v>
-      </c>
-      <c r="D847" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E847" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F847" t="n">
-        <v>52.95899780941949</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-3040.781812381942</v>
-      </c>
-      <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>182500</v>
-      </c>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>182800</v>
-      </c>
-      <c r="C848" t="n">
-        <v>183000</v>
-      </c>
-      <c r="D848" t="n">
-        <v>183300</v>
-      </c>
-      <c r="E848" t="n">
-        <v>182800</v>
-      </c>
-      <c r="F848" t="n">
-        <v>45.37500229382851</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-2995.406810088114</v>
-      </c>
-      <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>183500</v>
-      </c>
-      <c r="C849" t="n">
-        <v>183700</v>
-      </c>
-      <c r="D849" t="n">
-        <v>183800</v>
-      </c>
-      <c r="E849" t="n">
-        <v>183500</v>
-      </c>
-      <c r="F849" t="n">
-        <v>15.2378</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-2980.169010088114</v>
-      </c>
-      <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>183700</v>
-      </c>
-      <c r="C850" t="n">
-        <v>183400</v>
-      </c>
-      <c r="D850" t="n">
-        <v>183700</v>
-      </c>
-      <c r="E850" t="n">
-        <v>183400</v>
-      </c>
-      <c r="F850" t="n">
-        <v>51.7477</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-3031.916710088114</v>
-      </c>
-      <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>183400</v>
-      </c>
-      <c r="C851" t="n">
-        <v>183400</v>
-      </c>
-      <c r="D851" t="n">
-        <v>183400</v>
-      </c>
-      <c r="E851" t="n">
-        <v>183400</v>
-      </c>
-      <c r="F851" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-3031.916710088114</v>
-      </c>
-      <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>183300</v>
-      </c>
-      <c r="C852" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D852" t="n">
-        <v>183300</v>
-      </c>
-      <c r="E852" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F852" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-3034.716710088114</v>
-      </c>
-      <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>183300</v>
-      </c>
-      <c r="C853" t="n">
-        <v>183200</v>
-      </c>
-      <c r="D853" t="n">
-        <v>183300</v>
-      </c>
-      <c r="E853" t="n">
-        <v>183200</v>
-      </c>
-      <c r="F853" t="n">
-        <v>2.1065</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-3036.823210088114</v>
-      </c>
-      <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>183300</v>
-      </c>
-      <c r="C854" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D854" t="n">
-        <v>183300</v>
-      </c>
-      <c r="E854" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F854" t="n">
-        <v>0.0421</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-3036.781110088114</v>
-      </c>
-      <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>183300</v>
-      </c>
-      <c r="C855" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D855" t="n">
-        <v>183300</v>
-      </c>
-      <c r="E855" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F855" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-3036.781110088114</v>
-      </c>
-      <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>183300</v>
-      </c>
-      <c r="C856" t="n">
-        <v>183500</v>
-      </c>
-      <c r="D856" t="n">
-        <v>183500</v>
-      </c>
-      <c r="E856" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F856" t="n">
-        <v>0.5365</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-3036.244610088113</v>
-      </c>
-      <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L856" t="n">
-        <v>1</v>
-      </c>
-      <c r="M856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>183500</v>
-      </c>
-      <c r="C857" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D857" t="n">
-        <v>183700</v>
-      </c>
-      <c r="E857" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F857" t="n">
-        <v>1.4521</v>
-      </c>
-      <c r="G857" t="n">
-        <v>-3037.696710088113</v>
-      </c>
-      <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L857" t="n">
-        <v>1</v>
-      </c>
-      <c r="M857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>183600</v>
-      </c>
-      <c r="C858" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D858" t="n">
-        <v>183600</v>
-      </c>
-      <c r="E858" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F858" t="n">
-        <v>6.4226</v>
-      </c>
-      <c r="G858" t="n">
-        <v>-3037.696710088113</v>
-      </c>
-      <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L858" t="n">
-        <v>1</v>
-      </c>
-      <c r="M858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>183600</v>
-      </c>
-      <c r="C859" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D859" t="n">
-        <v>183600</v>
-      </c>
-      <c r="E859" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F859" t="n">
-        <v>2.5433</v>
-      </c>
-      <c r="G859" t="n">
-        <v>-3037.696710088113</v>
-      </c>
-      <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L859" t="n">
-        <v>1</v>
-      </c>
-      <c r="M859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>183700</v>
-      </c>
-      <c r="C860" t="n">
-        <v>183400</v>
-      </c>
-      <c r="D860" t="n">
-        <v>183700</v>
-      </c>
-      <c r="E860" t="n">
-        <v>183400</v>
-      </c>
-      <c r="F860" t="n">
-        <v>1.411143168209037</v>
-      </c>
-      <c r="G860" t="n">
-        <v>-3036.285566919904</v>
-      </c>
-      <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
-      <c r="M860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>183600</v>
-      </c>
-      <c r="C861" t="n">
-        <v>183600</v>
-      </c>
-      <c r="D861" t="n">
-        <v>183600</v>
-      </c>
-      <c r="E861" t="n">
-        <v>183600</v>
-      </c>
-      <c r="F861" t="n">
-        <v>7.508</v>
-      </c>
-      <c r="G861" t="n">
-        <v>-3028.777566919905</v>
-      </c>
-      <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L861" t="n">
-        <v>1</v>
-      </c>
-      <c r="M861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>183400</v>
-      </c>
-      <c r="C862" t="n">
-        <v>183100</v>
-      </c>
-      <c r="D862" t="n">
-        <v>183400</v>
-      </c>
-      <c r="E862" t="n">
-        <v>183100</v>
-      </c>
-      <c r="F862" t="n">
-        <v>41.47</v>
-      </c>
-      <c r="G862" t="n">
-        <v>-3070.247566919904</v>
-      </c>
-      <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L862" t="n">
-        <v>1</v>
-      </c>
-      <c r="M862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>183100</v>
-      </c>
-      <c r="C863" t="n">
-        <v>183100</v>
-      </c>
-      <c r="D863" t="n">
-        <v>183100</v>
-      </c>
-      <c r="E863" t="n">
-        <v>183100</v>
-      </c>
-      <c r="F863" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G863" t="n">
-        <v>-3070.247566919904</v>
-      </c>
-      <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L863" t="n">
-        <v>1</v>
-      </c>
-      <c r="M863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>183300</v>
-      </c>
-      <c r="C864" t="n">
-        <v>183300</v>
-      </c>
-      <c r="D864" t="n">
-        <v>183300</v>
-      </c>
-      <c r="E864" t="n">
-        <v>183300</v>
-      </c>
-      <c r="F864" t="n">
-        <v>0.08291287506819421</v>
-      </c>
-      <c r="G864" t="n">
-        <v>-3070.164654044836</v>
-      </c>
-      <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L864" t="n">
-        <v>1</v>
-      </c>
-      <c r="M864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>183100</v>
-      </c>
-      <c r="C865" t="n">
-        <v>183100</v>
-      </c>
-      <c r="D865" t="n">
-        <v>183100</v>
-      </c>
-      <c r="E865" t="n">
-        <v>183100</v>
-      </c>
-      <c r="F865" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G865" t="n">
-        <v>-3070.864654044836</v>
-      </c>
-      <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L865" t="n">
-        <v>1</v>
-      </c>
-      <c r="M865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>183100</v>
-      </c>
-      <c r="C866" t="n">
-        <v>183100</v>
-      </c>
-      <c r="D866" t="n">
-        <v>183100</v>
-      </c>
-      <c r="E866" t="n">
-        <v>183100</v>
-      </c>
-      <c r="F866" t="n">
-        <v>1.0624</v>
-      </c>
-      <c r="G866" t="n">
-        <v>-3070.864654044836</v>
-      </c>
-      <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L866" t="n">
-        <v>1</v>
-      </c>
-      <c r="M866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>183200</v>
-      </c>
-      <c r="C867" t="n">
-        <v>183200</v>
-      </c>
-      <c r="D867" t="n">
-        <v>183200</v>
-      </c>
-      <c r="E867" t="n">
-        <v>183200</v>
-      </c>
-      <c r="F867" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G867" t="n">
-        <v>-3070.364654044836</v>
-      </c>
-      <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L867" t="n">
-        <v>1</v>
-      </c>
-      <c r="M867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>183400</v>
-      </c>
-      <c r="C868" t="n">
-        <v>183400</v>
-      </c>
-      <c r="D868" t="n">
-        <v>183400</v>
-      </c>
-      <c r="E868" t="n">
-        <v>183400</v>
-      </c>
-      <c r="F868" t="n">
-        <v>1.6341</v>
-      </c>
-      <c r="G868" t="n">
-        <v>-3068.730554044836</v>
-      </c>
-      <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L868" t="n">
-        <v>1</v>
-      </c>
-      <c r="M868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>183200</v>
-      </c>
-      <c r="C869" t="n">
-        <v>183400</v>
-      </c>
-      <c r="D869" t="n">
-        <v>183400</v>
-      </c>
-      <c r="E869" t="n">
-        <v>183100</v>
-      </c>
-      <c r="F869" t="n">
-        <v>22.9201</v>
-      </c>
-      <c r="G869" t="n">
-        <v>-3068.730554044836</v>
-      </c>
-      <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L869" t="n">
-        <v>1</v>
-      </c>
-      <c r="M869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>183400</v>
-      </c>
-      <c r="C870" t="n">
-        <v>183400</v>
-      </c>
-      <c r="D870" t="n">
-        <v>183400</v>
-      </c>
-      <c r="E870" t="n">
-        <v>183200</v>
-      </c>
-      <c r="F870" t="n">
-        <v>1.5556</v>
-      </c>
-      <c r="G870" t="n">
-        <v>-3068.730554044836</v>
-      </c>
-      <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L870" t="n">
-        <v>1</v>
-      </c>
-      <c r="M870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>183200</v>
-      </c>
-      <c r="C871" t="n">
-        <v>183200</v>
-      </c>
-      <c r="D871" t="n">
-        <v>183200</v>
-      </c>
-      <c r="E871" t="n">
-        <v>183200</v>
-      </c>
-      <c r="F871" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="G871" t="n">
-        <v>-3068.742254044836</v>
-      </c>
-      <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L871" t="n">
-        <v>1</v>
-      </c>
-      <c r="M871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>183400</v>
-      </c>
-      <c r="C872" t="n">
-        <v>183100</v>
-      </c>
-      <c r="D872" t="n">
-        <v>183400</v>
-      </c>
-      <c r="E872" t="n">
-        <v>183100</v>
-      </c>
-      <c r="F872" t="n">
-        <v>32.3785</v>
-      </c>
-      <c r="G872" t="n">
-        <v>-3101.120754044835</v>
-      </c>
-      <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L872" t="n">
-        <v>1</v>
-      </c>
-      <c r="M872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>183100</v>
-      </c>
-      <c r="C873" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D873" t="n">
-        <v>183100</v>
-      </c>
-      <c r="E873" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F873" t="n">
-        <v>52.1461</v>
-      </c>
-      <c r="G873" t="n">
-        <v>-3153.266854044835</v>
-      </c>
-      <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L873" t="n">
-        <v>1</v>
-      </c>
-      <c r="M873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>183000</v>
-      </c>
-      <c r="C874" t="n">
-        <v>183000</v>
-      </c>
-      <c r="D874" t="n">
-        <v>183000</v>
-      </c>
-      <c r="E874" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F874" t="n">
-        <v>4.1554</v>
-      </c>
-      <c r="G874" t="n">
-        <v>-3149.111454044835</v>
-      </c>
-      <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L874" t="n">
-        <v>1</v>
-      </c>
-      <c r="M874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>182900</v>
-      </c>
-      <c r="C875" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D875" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E875" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F875" t="n">
-        <v>7.8141</v>
-      </c>
-      <c r="G875" t="n">
-        <v>-3156.925554044835</v>
-      </c>
-      <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L875" t="n">
-        <v>1</v>
-      </c>
-      <c r="M875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>183000</v>
-      </c>
-      <c r="C876" t="n">
-        <v>182800</v>
-      </c>
-      <c r="D876" t="n">
-        <v>183000</v>
-      </c>
-      <c r="E876" t="n">
-        <v>182800</v>
-      </c>
-      <c r="F876" t="n">
-        <v>47.4564</v>
-      </c>
-      <c r="G876" t="n">
-        <v>-3204.381954044835</v>
-      </c>
-      <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L876" t="n">
-        <v>1</v>
-      </c>
-      <c r="M876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>182800</v>
-      </c>
-      <c r="C877" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D877" t="n">
-        <v>182800</v>
-      </c>
-      <c r="E877" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F877" t="n">
-        <v>65.51300000000001</v>
-      </c>
-      <c r="G877" t="n">
-        <v>-3269.894954044835</v>
-      </c>
-      <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L877" t="n">
-        <v>1</v>
-      </c>
-      <c r="M877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C878" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D878" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E878" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F878" t="n">
-        <v>4</v>
-      </c>
-      <c r="G878" t="n">
-        <v>-3269.894954044835</v>
-      </c>
-      <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L878" t="n">
-        <v>1</v>
-      </c>
-      <c r="M878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="n">
-        <v>182300</v>
-      </c>
-      <c r="C879" t="n">
-        <v>182100</v>
-      </c>
-      <c r="D879" t="n">
-        <v>182300</v>
-      </c>
-      <c r="E879" t="n">
-        <v>182100</v>
-      </c>
-      <c r="F879" t="n">
-        <v>50</v>
-      </c>
-      <c r="G879" t="n">
-        <v>-3319.894954044835</v>
-      </c>
-      <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L879" t="n">
-        <v>1</v>
-      </c>
-      <c r="M879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="n">
-        <v>182100</v>
-      </c>
-      <c r="C880" t="n">
-        <v>182400</v>
-      </c>
-      <c r="D880" t="n">
-        <v>182400</v>
-      </c>
-      <c r="E880" t="n">
-        <v>182100</v>
-      </c>
-      <c r="F880" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="G880" t="n">
-        <v>-3308.394954044835</v>
-      </c>
-      <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>182100</v>
-      </c>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L880" t="n">
-        <v>1</v>
-      </c>
-      <c r="M880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="n">
-        <v>182300</v>
-      </c>
-      <c r="C881" t="n">
-        <v>182300</v>
-      </c>
-      <c r="D881" t="n">
-        <v>182300</v>
-      </c>
-      <c r="E881" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F881" t="n">
-        <v>8.507199999999999</v>
-      </c>
-      <c r="G881" t="n">
-        <v>-3316.902154044835</v>
-      </c>
-      <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>182400</v>
-      </c>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L881" t="n">
-        <v>1</v>
-      </c>
-      <c r="M881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="n">
-        <v>182300</v>
-      </c>
-      <c r="C882" t="n">
-        <v>182400</v>
-      </c>
-      <c r="D882" t="n">
-        <v>182400</v>
-      </c>
-      <c r="E882" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F882" t="n">
-        <v>1.7467</v>
-      </c>
-      <c r="G882" t="n">
-        <v>-3315.155454044835</v>
-      </c>
-      <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>182300</v>
-      </c>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L882" t="n">
-        <v>1</v>
-      </c>
-      <c r="M882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C883" t="n">
-        <v>182300</v>
-      </c>
-      <c r="D883" t="n">
-        <v>182500</v>
-      </c>
-      <c r="E883" t="n">
-        <v>182300</v>
-      </c>
-      <c r="F883" t="n">
-        <v>8.732900000000001</v>
-      </c>
-      <c r="G883" t="n">
-        <v>-3323.888354044835</v>
-      </c>
-      <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>182400</v>
-      </c>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L883" t="n">
-        <v>1</v>
-      </c>
-      <c r="M883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C884" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D884" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E884" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F884" t="n">
-        <v>0.2257</v>
-      </c>
-      <c r="G884" t="n">
-        <v>-3323.662654044835</v>
-      </c>
-      <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>182300</v>
-      </c>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L884" t="n">
-        <v>1</v>
-      </c>
-      <c r="M884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C885" t="n">
-        <v>182700</v>
-      </c>
-      <c r="D885" t="n">
-        <v>182700</v>
-      </c>
-      <c r="E885" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F885" t="n">
-        <v>20.1558</v>
-      </c>
-      <c r="G885" t="n">
-        <v>-3303.506854044835</v>
-      </c>
-      <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L885" t="n">
-        <v>1</v>
-      </c>
-      <c r="M885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C886" t="n">
-        <v>182800</v>
-      </c>
-      <c r="D886" t="n">
-        <v>182800</v>
-      </c>
-      <c r="E886" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F886" t="n">
-        <v>80.0395</v>
-      </c>
-      <c r="G886" t="n">
-        <v>-3223.467354044835</v>
-      </c>
-      <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>182700</v>
-      </c>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L886" t="n">
-        <v>1</v>
-      </c>
-      <c r="M886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>182800</v>
-      </c>
-      <c r="C887" t="n">
-        <v>182800</v>
-      </c>
-      <c r="D887" t="n">
-        <v>182800</v>
-      </c>
-      <c r="E887" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F887" t="n">
-        <v>83.2632</v>
-      </c>
-      <c r="G887" t="n">
-        <v>-3223.467354044835</v>
-      </c>
-      <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>182800</v>
-      </c>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L887" t="n">
-        <v>1</v>
-      </c>
-      <c r="M887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>182800</v>
-      </c>
-      <c r="C888" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D888" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E888" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F888" t="n">
-        <v>5.6024</v>
-      </c>
-      <c r="G888" t="n">
-        <v>-3217.864954044835</v>
-      </c>
-      <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>182800</v>
-      </c>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L888" t="n">
-        <v>1</v>
-      </c>
-      <c r="M888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>182900</v>
-      </c>
-      <c r="C889" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D889" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E889" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F889" t="n">
-        <v>5.5021</v>
-      </c>
-      <c r="G889" t="n">
-        <v>-3217.864954044835</v>
-      </c>
-      <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L889" t="n">
-        <v>1</v>
-      </c>
-      <c r="M889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>182900</v>
-      </c>
-      <c r="C890" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D890" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E890" t="n">
-        <v>182800</v>
-      </c>
-      <c r="F890" t="n">
-        <v>4.9709</v>
-      </c>
-      <c r="G890" t="n">
-        <v>-3217.864954044835</v>
-      </c>
-      <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
-      <c r="M890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>182900</v>
-      </c>
-      <c r="C891" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D891" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E891" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F891" t="n">
-        <v>1.2893</v>
-      </c>
-      <c r="G891" t="n">
-        <v>-3217.864954044835</v>
-      </c>
-      <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L891" t="n">
-        <v>1</v>
-      </c>
-      <c r="M891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>182900</v>
-      </c>
-      <c r="C892" t="n">
-        <v>182900</v>
-      </c>
-      <c r="D892" t="n">
-        <v>182900</v>
-      </c>
-      <c r="E892" t="n">
-        <v>182900</v>
-      </c>
-      <c r="F892" t="n">
-        <v>2.6314</v>
-      </c>
-      <c r="G892" t="n">
-        <v>-3217.864954044835</v>
-      </c>
-      <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L892" t="n">
-        <v>1</v>
-      </c>
-      <c r="M892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>182700</v>
-      </c>
-      <c r="C893" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D893" t="n">
-        <v>182700</v>
-      </c>
-      <c r="E893" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F893" t="n">
-        <v>10.0823</v>
-      </c>
-      <c r="G893" t="n">
-        <v>-3227.947254044835</v>
-      </c>
-      <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>182900</v>
-      </c>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>182500</v>
-      </c>
-      <c r="C894" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D894" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E894" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F894" t="n">
-        <v>1.4464</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-3227.947254044835</v>
-      </c>
-      <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C895" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D895" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E895" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F895" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-3227.947254044835</v>
-      </c>
-      <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C896" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D896" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E896" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F896" t="n">
-        <v>0.1095290251916758</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-3227.947254044835</v>
-      </c>
-      <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C897" t="n">
-        <v>182500</v>
-      </c>
-      <c r="D897" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E897" t="n">
-        <v>182500</v>
-      </c>
-      <c r="F897" t="n">
-        <v>31.7671</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-3259.714354044835</v>
-      </c>
-      <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C898" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D898" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E898" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F898" t="n">
-        <v>4</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-3255.714354044835</v>
-      </c>
-      <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>182500</v>
-      </c>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C899" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D899" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E899" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F899" t="n">
-        <v>18.9937</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-3255.714354044835</v>
-      </c>
-      <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C900" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D900" t="n">
-        <v>182600</v>
-      </c>
-      <c r="E900" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F900" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-3255.714354044835</v>
-      </c>
-      <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C901" t="n">
-        <v>182600</v>
-      </c>
-      <c r="D901" t="n">
-        <v>182800</v>
-      </c>
-      <c r="E901" t="n">
-        <v>182600</v>
-      </c>
-      <c r="F901" t="n">
-        <v>17.81488118161926</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-3255.714354044835</v>
-      </c>
-      <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>182600</v>
-      </c>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30498,7 +30176,9 @@
       <c r="I902" t="n">
         <v>182600</v>
       </c>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>182600</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30537,7 +30217,9 @@
       <c r="I903" t="n">
         <v>182600</v>
       </c>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>182600</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30576,7 +30258,9 @@
       <c r="I904" t="n">
         <v>182700</v>
       </c>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>182600</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30615,7 +30299,9 @@
       <c r="I905" t="n">
         <v>182600</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>182600</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30654,7 +30340,9 @@
       <c r="I906" t="n">
         <v>182600</v>
       </c>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>182600</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30693,7 +30381,9 @@
       <c r="I907" t="n">
         <v>182600</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>182600</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30732,7 +30422,9 @@
       <c r="I908" t="n">
         <v>182400</v>
       </c>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>182600</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30771,7 +30463,9 @@
       <c r="I909" t="n">
         <v>182000</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>182600</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30810,7 +30504,9 @@
       <c r="I910" t="n">
         <v>182000</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>182600</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30849,7 +30545,9 @@
       <c r="I911" t="n">
         <v>182200</v>
       </c>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>182600</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30888,7 +30586,9 @@
       <c r="I912" t="n">
         <v>182200</v>
       </c>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>182600</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30927,7 +30627,9 @@
       <c r="I913" t="n">
         <v>182200</v>
       </c>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>182600</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30966,7 +30668,9 @@
       <c r="I914" t="n">
         <v>182500</v>
       </c>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>182600</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31005,7 +30709,9 @@
       <c r="I915" t="n">
         <v>182500</v>
       </c>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>182600</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31044,7 +30750,9 @@
       <c r="I916" t="n">
         <v>182500</v>
       </c>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>182600</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31083,7 +30791,9 @@
       <c r="I917" t="n">
         <v>182400</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>182600</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31122,7 +30832,9 @@
       <c r="I918" t="n">
         <v>182400</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>182600</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31161,7 +30873,9 @@
       <c r="I919" t="n">
         <v>182600</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>182600</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31200,7 +30914,9 @@
       <c r="I920" t="n">
         <v>182800</v>
       </c>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>182600</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31239,7 +30955,9 @@
       <c r="I921" t="n">
         <v>182900</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>182600</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31273,12 +30991,12 @@
         <v>-3359.027178088551</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>183000</v>
-      </c>
-      <c r="J922" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>182600</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31312,12 +31030,12 @@
         <v>-3343.350078088551</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>183300</v>
-      </c>
-      <c r="J923" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>182600</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31351,12 +31069,12 @@
         <v>-3225.762278088551</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>183700</v>
-      </c>
-      <c r="J924" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>182600</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31393,7 +31111,9 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>182600</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31430,7 +31150,9 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>182600</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31467,7 +31189,9 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>182600</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31504,7 +31228,9 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>182600</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31541,7 +31267,9 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>182600</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31578,7 +31306,9 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>182600</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31615,7 +31345,9 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>182600</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31652,7 +31384,9 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>182600</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31689,7 +31423,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>182600</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31726,7 +31462,9 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>182600</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31763,7 +31501,9 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>182600</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31797,17 +31537,19 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>182600</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L936" t="n">
-        <v>1</v>
+        <v>1.013619934282585</v>
       </c>
       <c r="M936" t="inlineStr"/>
     </row>
@@ -31834,15 +31576,11 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31871,15 +31609,11 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31908,15 +31642,11 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31945,15 +31675,11 @@
         <v>-2911.882169589874</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31982,15 +31708,11 @@
         <v>-2937.988169589874</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32019,15 +31741,11 @@
         <v>-2948.576369589875</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32056,15 +31774,11 @@
         <v>-3004.548569589875</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32097,11 +31811,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32134,11 +31844,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32167,15 +31873,11 @@
         <v>-3071.140969589875</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32208,11 +31910,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32245,11 +31943,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32282,11 +31976,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32319,11 +32009,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32356,11 +32042,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32393,11 +32075,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32430,11 +32108,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32463,15 +32137,11 @@
         <v>-3003.484731397298</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32500,15 +32170,11 @@
         <v>-3051.343931397298</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32537,15 +32203,11 @@
         <v>-2858.210631397298</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32574,15 +32236,11 @@
         <v>-2976.792331397298</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32611,15 +32269,11 @@
         <v>-2369.081231397298</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32648,15 +32302,11 @@
         <v>-2573.910431397298</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32685,15 +32335,11 @@
         <v>-2553.244963275957</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32726,11 +32372,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32763,11 +32405,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32800,11 +32438,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32837,11 +32471,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32870,17 +32500,11 @@
         <v>-2776.88389977406</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
-      </c>
-      <c r="I965" t="n">
-        <v>186900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32913,11 +32537,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32946,17 +32566,11 @@
         <v>-2707.49119977406</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>186600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32989,11 +32603,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33026,11 +32636,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33063,11 +32669,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33100,11 +32702,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33137,11 +32735,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33174,11 +32768,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33211,11 +32801,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33248,11 +32834,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33285,11 +32867,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33322,11 +32900,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33359,11 +32933,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33396,11 +32966,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33433,11 +32999,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33470,11 +33032,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33507,11 +33065,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33544,11 +33098,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33581,11 +33131,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33618,11 +33164,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33655,11 +33197,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33692,11 +33230,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33729,11 +33263,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33766,11 +33296,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33803,11 +33329,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33840,11 +33362,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33877,11 +33395,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33914,11 +33428,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33951,11 +33461,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33988,11 +33494,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34025,11 +33527,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34062,11 +33560,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34099,11 +33593,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34136,11 +33626,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34173,11 +33659,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +33692,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34247,11 +33725,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34284,11 +33758,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34321,11 +33791,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34358,11 +33824,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34395,11 +33857,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34432,11 +33890,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34469,11 +33923,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34506,11 +33956,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34543,11 +33989,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34580,11 +34022,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34617,11 +34055,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34654,11 +34088,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34691,11 +34121,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34728,11 +34154,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34765,11 +34187,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34802,11 +34220,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34839,11 +34253,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34876,11 +34286,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34913,11 +34319,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34950,11 +34352,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34987,11 +34385,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35024,11 +34418,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35061,11 +34451,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35098,11 +34484,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35135,11 +34517,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35172,11 +34550,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35209,11 +34583,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35246,11 +34616,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35283,11 +34649,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35320,11 +34682,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35357,11 +34715,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35394,11 +34748,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35431,11 +34781,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35468,11 +34814,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35505,11 +34847,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35542,11 +34880,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35579,11 +34913,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35616,11 +34946,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35653,11 +34979,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35690,11 +35012,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35727,11 +35045,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35764,11 +35078,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35801,11 +35111,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35838,11 +35144,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35875,11 +35177,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35912,11 +35210,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35949,11 +35243,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35986,11 +35276,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36023,11 +35309,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36060,11 +35342,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36097,11 +35375,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36134,11 +35408,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36171,11 +35441,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36208,11 +35474,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36245,11 +35507,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36282,11 +35540,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36319,11 +35573,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36356,11 +35606,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36393,11 +35639,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36430,11 +35672,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36467,11 +35705,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36504,11 +35738,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36541,11 +35771,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36578,11 +35804,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36615,11 +35837,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36652,11 +35870,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36689,11 +35903,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36726,11 +35936,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36763,11 +35969,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36800,11 +36002,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36837,11 +36035,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36874,11 +36068,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36911,11 +36101,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36948,11 +36134,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36985,11 +36167,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37022,11 +36200,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37059,11 +36233,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37096,11 +36266,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37133,11 +36299,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37170,11 +36332,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37207,11 +36365,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37244,11 +36398,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37281,11 +36431,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37318,11 +36464,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37355,11 +36497,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37392,11 +36530,7 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37429,11 +36563,7 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37466,11 +36596,7 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37503,11 +36629,7 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37540,11 +36662,7 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37577,11 +36695,7 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37614,17 +36728,13 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
       <c r="M1093" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest ETH.xlsx
+++ b/BackTest/2020-01-25 BackTest ETH.xlsx
@@ -451,7 +451,7 @@
         <v>-21.88998994708996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-16.44858994708996</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-16.44858994708996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>9.941910052910043</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-0.8515899470899573</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>74.77331005291003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>74.76901005291003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>74.69481005291003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>78.14881005291002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>71.17881005291002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>84.67581005291002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>87.19581005291002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>86.19628674782527</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>81.42888674782527</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>86.98757657833374</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>165.3273833228903</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>158.5183833228903</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>186.0932833228903</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>180.1122833228903</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>180.11758522967</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>179.18908522967</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-598.1075493365036</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-601.7183493365036</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-601.7183493365036</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-601.7130493365036</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-602.6048493365035</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-610.9323493365035</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-610.2469493365036</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-609.9899493365036</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-597.8649493365036</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-619.0456493365036</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-670.3187493365036</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-669.8763493365036</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-459.6292493365036</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-460.2924493365036</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-467.5515493365036</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-444.7400493365036</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-441.7911493365036</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-441.8761493365036</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-446.8761493365036</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-354.7887493365036</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-336.3931493365036</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-336.0215493365036</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-344.1514493365036</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-343.0170493365036</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-332.1821493365036</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-326.3044493365036</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-318.5889493365036</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-322.0099493365036</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-322.0265493365035</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-333.8446493365036</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-333.6464493365036</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-336.9474493365036</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-248.5391493365036</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-274.7402493365036</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-276.9571493365036</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-278.1871493365036</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-308.7808493365036</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-449.9079493365036</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-472.4710493365037</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-537.3088493365036</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-528.0738857578906</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-529.5513857578906</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-616.1848857578906</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-616.1848857578906</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-590.3001741885702</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-588.8268741885702</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-593.0675741885701</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-592.9625741885701</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-638.5256741885701</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-677.1483741885701</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-677.4683741885701</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-746.60467418857</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-684.69027418857</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-685.78547418857</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-665.1664837224683</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-659.5359842515688</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-661.9725345161191</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-639.3193345161192</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-597.3141345161191</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-615.4589345161191</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-619.4991345161192</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-617.2059345161192</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-620.9323345161192</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-620.4302345161192</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-630.0720345161192</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-618.4410842515689</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-618.1964842515689</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-610.1651842515689</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-610.1683842515689</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-592.8799842515689</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-598.3404842515689</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-597.7304842515689</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-644.0006842515689</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-655.2689842515689</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-675.2689842515689</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-709.6189842515689</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-679.792284251569</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-708.919484251569</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -29491,11 +29491,17 @@
         <v>-3315.155454044835</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>182300</v>
+      </c>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +29530,17 @@
         <v>-3323.888354044835</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>182400</v>
+      </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +29569,17 @@
         <v>-3323.662654044835</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>182300</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +29608,17 @@
         <v>-3303.506854044835</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>182600</v>
+      </c>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +29647,17 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>182700</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +29686,17 @@
         <v>-3223.467354044835</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>182800</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +29725,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>182800</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +29764,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>182900</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +29803,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>182900</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +29842,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>182900</v>
+      </c>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +29881,17 @@
         <v>-3217.864954044835</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>182900</v>
+      </c>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +29920,17 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>182900</v>
+      </c>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29887,11 +29959,17 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>182600</v>
+      </c>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +29998,17 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>182600</v>
+      </c>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +30037,17 @@
         <v>-3227.947254044835</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>182600</v>
+      </c>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30076,17 @@
         <v>-3259.714354044835</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>182600</v>
+      </c>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30115,17 @@
         <v>-3255.714354044835</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>182500</v>
+      </c>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30057,10 +30159,12 @@
       <c r="I899" t="n">
         <v>182600</v>
       </c>
-      <c r="J899" t="n">
-        <v>182600</v>
-      </c>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30094,12 +30198,10 @@
       <c r="I900" t="n">
         <v>182600</v>
       </c>
-      <c r="J900" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L900" t="n">
@@ -30135,12 +30237,10 @@
       <c r="I901" t="n">
         <v>182600</v>
       </c>
-      <c r="J901" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L901" t="n">
@@ -30176,9 +30276,7 @@
       <c r="I902" t="n">
         <v>182600</v>
       </c>
-      <c r="J902" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30217,9 +30315,7 @@
       <c r="I903" t="n">
         <v>182600</v>
       </c>
-      <c r="J903" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30258,9 +30354,7 @@
       <c r="I904" t="n">
         <v>182700</v>
       </c>
-      <c r="J904" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30299,9 +30393,7 @@
       <c r="I905" t="n">
         <v>182600</v>
       </c>
-      <c r="J905" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30340,9 +30432,7 @@
       <c r="I906" t="n">
         <v>182600</v>
       </c>
-      <c r="J906" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30381,9 +30471,7 @@
       <c r="I907" t="n">
         <v>182600</v>
       </c>
-      <c r="J907" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30422,9 +30510,7 @@
       <c r="I908" t="n">
         <v>182400</v>
       </c>
-      <c r="J908" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30458,14 +30544,10 @@
         <v>-3549.015154044835</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>182000</v>
-      </c>
-      <c r="J909" t="n">
-        <v>182600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30504,9 +30586,7 @@
       <c r="I910" t="n">
         <v>182000</v>
       </c>
-      <c r="J910" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30545,9 +30625,7 @@
       <c r="I911" t="n">
         <v>182200</v>
       </c>
-      <c r="J911" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30586,9 +30664,7 @@
       <c r="I912" t="n">
         <v>182200</v>
       </c>
-      <c r="J912" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30627,9 +30703,7 @@
       <c r="I913" t="n">
         <v>182200</v>
       </c>
-      <c r="J913" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30668,9 +30742,7 @@
       <c r="I914" t="n">
         <v>182500</v>
       </c>
-      <c r="J914" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30709,9 +30781,7 @@
       <c r="I915" t="n">
         <v>182500</v>
       </c>
-      <c r="J915" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30750,9 +30820,7 @@
       <c r="I916" t="n">
         <v>182500</v>
       </c>
-      <c r="J916" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30791,9 +30859,7 @@
       <c r="I917" t="n">
         <v>182400</v>
       </c>
-      <c r="J917" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30832,9 +30898,7 @@
       <c r="I918" t="n">
         <v>182400</v>
       </c>
-      <c r="J918" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30873,9 +30937,7 @@
       <c r="I919" t="n">
         <v>182600</v>
       </c>
-      <c r="J919" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30914,9 +30976,7 @@
       <c r="I920" t="n">
         <v>182800</v>
       </c>
-      <c r="J920" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30955,9 +31015,7 @@
       <c r="I921" t="n">
         <v>182900</v>
       </c>
-      <c r="J921" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30991,12 +31049,12 @@
         <v>-3359.027178088551</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>182600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>183000</v>
+      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31030,12 +31088,12 @@
         <v>-3343.350078088551</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>182600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>183300</v>
+      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31069,12 +31127,12 @@
         <v>-3225.762278088551</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>182600</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>183700</v>
+      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31111,9 +31169,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31150,9 +31206,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31189,9 +31243,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31228,9 +31280,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31267,9 +31317,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31306,9 +31354,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31345,9 +31391,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31384,9 +31428,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31423,9 +31465,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31462,9 +31502,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31501,9 +31539,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31537,19 +31573,17 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>182600</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L936" t="n">
-        <v>1.013619934282585</v>
+        <v>1</v>
       </c>
       <c r="M936" t="inlineStr"/>
     </row>
@@ -31576,11 +31610,15 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31609,11 +31647,15 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31642,11 +31684,15 @@
         <v>-2942.904269589874</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31675,11 +31721,15 @@
         <v>-2911.882169589874</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31708,11 +31758,15 @@
         <v>-2937.988169589874</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31741,11 +31795,15 @@
         <v>-2948.576369589875</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31774,11 +31832,15 @@
         <v>-3004.548569589875</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31811,7 +31873,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31844,7 +31910,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31873,11 +31943,15 @@
         <v>-3071.140969589875</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31910,7 +31984,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31943,7 +32021,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31976,7 +32058,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32009,7 +32095,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32042,7 +32132,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32075,7 +32169,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32108,7 +32206,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32137,11 +32239,15 @@
         <v>-3003.484731397298</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32170,11 +32276,15 @@
         <v>-3051.343931397298</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32203,11 +32313,15 @@
         <v>-2858.210631397298</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32236,11 +32350,15 @@
         <v>-2976.792331397298</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32269,11 +32387,15 @@
         <v>-2369.081231397298</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32302,11 +32424,15 @@
         <v>-2573.910431397298</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32335,11 +32461,15 @@
         <v>-2553.244963275957</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32372,7 +32502,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32405,7 +32539,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32438,7 +32576,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32471,7 +32613,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32504,7 +32650,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32537,7 +32687,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32570,7 +32724,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32603,7 +32761,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32636,7 +32798,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32669,7 +32835,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32702,7 +32872,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32735,7 +32909,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32768,7 +32946,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32801,7 +32983,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32834,7 +33020,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32867,7 +33057,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32900,7 +33094,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32933,7 +33131,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32966,7 +33168,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32999,7 +33205,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33032,7 +33242,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33065,7 +33279,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33098,7 +33316,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33131,7 +33353,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33164,7 +33390,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33197,7 +33427,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33230,7 +33464,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33263,7 +33501,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33296,7 +33538,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33329,7 +33575,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33362,7 +33612,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33395,7 +33649,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33428,7 +33686,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33461,7 +33723,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33494,7 +33760,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33527,7 +33797,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33560,7 +33834,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33593,7 +33871,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33626,7 +33908,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33659,7 +33945,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33692,7 +33982,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33725,7 +34019,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33758,7 +34056,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33791,7 +34093,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33824,7 +34130,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33857,7 +34167,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33890,7 +34204,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33923,7 +34241,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33956,7 +34278,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33989,7 +34315,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34022,7 +34352,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34055,7 +34389,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34088,7 +34426,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34121,7 +34463,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34154,7 +34500,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34187,7 +34537,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34220,7 +34574,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34253,7 +34611,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34286,7 +34648,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34319,7 +34685,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34352,7 +34722,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34385,7 +34759,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34418,7 +34796,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34451,7 +34833,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34484,7 +34870,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34517,7 +34907,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34550,7 +34944,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34583,7 +34981,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34616,7 +35018,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34649,7 +35055,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34682,7 +35092,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34715,7 +35129,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34748,7 +35166,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34781,7 +35203,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34814,7 +35240,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34847,7 +35277,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34880,7 +35314,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34913,7 +35351,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34946,7 +35388,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34979,7 +35425,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35012,7 +35462,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35045,7 +35499,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35078,7 +35536,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -35111,7 +35573,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35144,7 +35610,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35177,7 +35647,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35210,7 +35684,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35243,7 +35721,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35276,7 +35758,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35309,7 +35795,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35342,7 +35832,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35375,7 +35869,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35408,7 +35906,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35441,7 +35943,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35474,7 +35980,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35507,7 +36017,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35540,7 +36054,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35573,7 +36091,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35606,7 +36128,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35639,7 +36165,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35672,7 +36202,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35705,7 +36239,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35738,7 +36276,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35771,7 +36313,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35804,7 +36350,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35837,7 +36387,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35870,7 +36424,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35903,7 +36461,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35936,7 +36498,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35969,7 +36535,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36002,7 +36572,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36035,7 +36609,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36068,7 +36646,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -36101,7 +36683,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -36134,7 +36720,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -36167,7 +36757,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -36200,7 +36794,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -36233,7 +36831,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -36266,7 +36868,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36299,7 +36905,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36332,7 +36942,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36365,7 +36979,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36398,7 +37016,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36431,7 +37053,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36464,7 +37090,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36497,7 +37127,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36530,7 +37164,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36563,7 +37201,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36596,7 +37238,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36629,7 +37275,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36662,7 +37312,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36695,7 +37349,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36728,7 +37386,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
